--- a/DCF Model/Tata Motors DCF.xlsx
+++ b/DCF Model/Tata Motors DCF.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9,9 +9,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DCF Model\Tata Motors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F041E2-74CA-42F7-AAD0-1126DD1CA468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3C5D06C-4CDF-485E-A9D1-85F4023114AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="pzHmThD9sYn2KlqokLbjKwRhguMCYqQL8vYXUf+cRVdVENEEQzrLnQGcTpgLXGfKpW0xFAlpOQ7otULW21YIXA==" workbookSaltValue="jIAwByIyjOBt8TZNoGxtFg==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="601" firstSheet="2" activeTab="3" xr2:uid="{AC6C53F5-AC2A-423D-B779-45EC237BFDF2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="601" firstSheet="12" activeTab="17" xr2:uid="{AC6C53F5-AC2A-423D-B779-45EC237BFDF2}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="39" r:id="rId1"/>
@@ -1938,7 +1939,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="212">
+  <cellXfs count="213">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2295,6 +2296,25 @@
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="37" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="1" fillId="24" borderId="11" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="11" xfId="16" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="31" fillId="18" borderId="11" xfId="17" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="18" borderId="11" xfId="17" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="11" xfId="16" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="11" xfId="14" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="23" borderId="16" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2322,9 +2342,6 @@
     <xf numFmtId="0" fontId="29" fillId="20" borderId="15" xfId="11" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="11" xfId="16" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="4" fontId="31" fillId="18" borderId="11" xfId="17" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2338,21 +2355,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="21" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="31" fillId="18" borderId="11" xfId="17" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="18" borderId="11" xfId="17" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="11" xfId="14" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="11" xfId="16" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="24" borderId="11" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -4117,6 +4119,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -4124,7 +4127,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:noFill/>
@@ -5092,6 +5094,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -5099,7 +5102,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5551,6 +5553,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -5558,7 +5561,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5922,6 +5924,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -5929,7 +5932,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -6365,6 +6367,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -6372,7 +6375,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -6800,6 +6802,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -6807,7 +6810,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -7778,6 +7780,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -7785,7 +7788,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -8116,6 +8118,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -8123,7 +8126,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -8575,6 +8577,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -8582,7 +8585,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -9010,6 +9012,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -9017,7 +9020,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -9870,6 +9872,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -9877,7 +9880,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -10678,6 +10680,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -10685,7 +10688,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:noFill/>
@@ -11002,6 +11004,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -11009,7 +11012,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -11461,6 +11463,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -11468,7 +11471,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -11904,6 +11906,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -11911,7 +11914,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -12808,6 +12810,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -12815,7 +12818,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -13276,6 +13278,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -13283,7 +13286,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -13703,6 +13705,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -13710,7 +13713,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -14551,6 +14553,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -14558,7 +14561,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -15574,6 +15576,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -15581,7 +15584,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -15966,6 +15968,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -15973,7 +15976,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -16587,6 +16589,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -16594,7 +16597,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -17046,6 +17048,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -17053,7 +17056,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -17481,6 +17483,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -17488,7 +17491,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -18424,6 +18426,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -18431,7 +18434,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -18867,6 +18869,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -18874,7 +18877,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -19262,6 +19264,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -19269,7 +19272,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -37115,7 +37117,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="438" row="7">
+  <wetp:taskpane dockstate="right" visibility="1" width="350" row="4">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
 </wetp:taskpanes>
@@ -37150,8 +37152,8 @@
   </sheetPr>
   <dimension ref="B2:T67"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:C10"/>
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -37173,27 +37175,27 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:20" ht="23.25">
-      <c r="B2" s="196" t="s">
+      <c r="B2" s="203" t="s">
         <v>143</v>
       </c>
-      <c r="C2" s="196"/>
-      <c r="D2" s="196"/>
-      <c r="E2" s="196"/>
-      <c r="F2" s="196"/>
-      <c r="G2" s="196"/>
-      <c r="H2" s="196"/>
-      <c r="I2" s="196"/>
-      <c r="J2" s="196"/>
-      <c r="K2" s="196"/>
-      <c r="L2" s="196"/>
-      <c r="M2" s="196"/>
-      <c r="N2" s="196"/>
-      <c r="O2" s="196"/>
-      <c r="P2" s="196"/>
-      <c r="Q2" s="196"/>
-      <c r="R2" s="196"/>
-      <c r="S2" s="196"/>
-      <c r="T2" s="196"/>
+      <c r="C2" s="203"/>
+      <c r="D2" s="203"/>
+      <c r="E2" s="203"/>
+      <c r="F2" s="203"/>
+      <c r="G2" s="203"/>
+      <c r="H2" s="203"/>
+      <c r="I2" s="203"/>
+      <c r="J2" s="203"/>
+      <c r="K2" s="203"/>
+      <c r="L2" s="203"/>
+      <c r="M2" s="203"/>
+      <c r="N2" s="203"/>
+      <c r="O2" s="203"/>
+      <c r="P2" s="203"/>
+      <c r="Q2" s="203"/>
+      <c r="R2" s="203"/>
+      <c r="S2" s="203"/>
+      <c r="T2" s="203"/>
     </row>
     <row r="4" spans="2:20">
       <c r="B4" s="141" t="s">
@@ -37246,25 +37248,25 @@
       <c r="N8" s="113"/>
     </row>
     <row r="10" spans="2:20" ht="18.75">
-      <c r="B10" s="195" t="s">
+      <c r="B10" s="202" t="s">
         <v>199</v>
       </c>
-      <c r="C10" s="195"/>
-      <c r="E10" s="192" t="s">
+      <c r="C10" s="202"/>
+      <c r="E10" s="199" t="s">
         <v>198</v>
       </c>
-      <c r="F10" s="193"/>
-      <c r="G10" s="193"/>
-      <c r="H10" s="193"/>
-      <c r="I10" s="194"/>
+      <c r="F10" s="200"/>
+      <c r="G10" s="200"/>
+      <c r="H10" s="200"/>
+      <c r="I10" s="201"/>
       <c r="J10" s="23"/>
       <c r="K10" s="145" t="s">
         <v>206</v>
       </c>
-      <c r="L10" s="202" t="s">
+      <c r="L10" s="208" t="s">
         <v>205</v>
       </c>
-      <c r="M10" s="202"/>
+      <c r="M10" s="208"/>
     </row>
     <row r="11" spans="2:20">
       <c r="B11" s="126" t="s">
@@ -37276,11 +37278,11 @@
       <c r="E11" s="127" t="s">
         <v>170</v>
       </c>
-      <c r="F11" s="197" t="s">
+      <c r="F11" s="193" t="s">
         <v>174</v>
       </c>
-      <c r="G11" s="197"/>
-      <c r="H11" s="197"/>
+      <c r="G11" s="193"/>
+      <c r="H11" s="193"/>
       <c r="I11" s="127" t="s">
         <v>179</v>
       </c>
@@ -37288,11 +37290,11 @@
         <f t="shared" ref="K11:L16" ca="1" si="0">INDEX(INDIRECT($L$10 &amp; "_Valuation"), ROW()-ROW($K$11)+1, COLUMN()-COLUMN($K$11)+1)</f>
         <v>Metric</v>
       </c>
-      <c r="L11" s="197" t="str">
+      <c r="L11" s="193" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Value</v>
       </c>
-      <c r="M11" s="197"/>
+      <c r="M11" s="193"/>
     </row>
     <row r="12" spans="2:20">
       <c r="B12" s="108" t="s">
@@ -37304,11 +37306,11 @@
       <c r="E12" s="109" t="s">
         <v>171</v>
       </c>
-      <c r="F12" s="205" t="s">
+      <c r="F12" s="194" t="s">
         <v>175</v>
       </c>
-      <c r="G12" s="205"/>
-      <c r="H12" s="205"/>
+      <c r="G12" s="194"/>
+      <c r="H12" s="194"/>
       <c r="I12" s="144" t="s">
         <v>184</v>
       </c>
@@ -37316,11 +37318,11 @@
         <f t="shared" ca="1" si="0"/>
         <v>Enterprise Value (EV)</v>
       </c>
-      <c r="L12" s="198">
+      <c r="L12" s="204">
         <f t="shared" ca="1" si="0"/>
         <v>633090.20719632809</v>
       </c>
-      <c r="M12" s="198"/>
+      <c r="M12" s="204"/>
     </row>
     <row r="13" spans="2:20">
       <c r="B13" s="109" t="s">
@@ -37332,11 +37334,11 @@
       <c r="E13" s="109" t="s">
         <v>191</v>
       </c>
-      <c r="F13" s="205" t="s">
+      <c r="F13" s="194" t="s">
         <v>176</v>
       </c>
-      <c r="G13" s="205"/>
-      <c r="H13" s="205"/>
+      <c r="G13" s="194"/>
+      <c r="H13" s="194"/>
       <c r="I13" s="144" t="s">
         <v>185</v>
       </c>
@@ -37344,11 +37346,11 @@
         <f t="shared" ca="1" si="0"/>
         <v>Equity Value</v>
       </c>
-      <c r="L13" s="198">
+      <c r="L13" s="204">
         <f t="shared" ca="1" si="0"/>
         <v>571632.90719632804</v>
       </c>
-      <c r="M13" s="198"/>
+      <c r="M13" s="204"/>
     </row>
     <row r="14" spans="2:20">
       <c r="B14" s="109" t="s">
@@ -37360,11 +37362,11 @@
       <c r="E14" s="109" t="s">
         <v>172</v>
       </c>
-      <c r="F14" s="205" t="s">
+      <c r="F14" s="194" t="s">
         <v>177</v>
       </c>
-      <c r="G14" s="205"/>
-      <c r="H14" s="205"/>
+      <c r="G14" s="194"/>
+      <c r="H14" s="194"/>
       <c r="I14" s="144" t="s">
         <v>184</v>
       </c>
@@ -37372,11 +37374,11 @@
         <f t="shared" ca="1" si="0"/>
         <v>Implied Share Price</v>
       </c>
-      <c r="L14" s="199">
+      <c r="L14" s="205">
         <f t="shared" ca="1" si="0"/>
         <v>1491.5405275833739</v>
       </c>
-      <c r="M14" s="199"/>
+      <c r="M14" s="205"/>
     </row>
     <row r="15" spans="2:20">
       <c r="B15" s="109" t="s">
@@ -37388,11 +37390,11 @@
       <c r="E15" s="109" t="s">
         <v>173</v>
       </c>
-      <c r="F15" s="205" t="s">
+      <c r="F15" s="194" t="s">
         <v>178</v>
       </c>
-      <c r="G15" s="205"/>
-      <c r="H15" s="205"/>
+      <c r="G15" s="194"/>
+      <c r="H15" s="194"/>
       <c r="I15" s="144" t="s">
         <v>184</v>
       </c>
@@ -37400,11 +37402,11 @@
         <f t="shared" ca="1" si="0"/>
         <v>Market Price (as of date)</v>
       </c>
-      <c r="L15" s="200">
+      <c r="L15" s="206">
         <f t="shared" ca="1" si="0"/>
         <v>686.7</v>
       </c>
-      <c r="M15" s="200"/>
+      <c r="M15" s="206"/>
     </row>
     <row r="16" spans="2:20">
       <c r="B16" s="109" t="s">
@@ -37421,11 +37423,11 @@
         <f t="shared" ca="1" si="0"/>
         <v>Upside/Downside</v>
       </c>
-      <c r="L16" s="201">
+      <c r="L16" s="207">
         <f t="shared" ca="1" si="0"/>
         <v>1.1720409605116844</v>
       </c>
-      <c r="M16" s="201"/>
+      <c r="M16" s="207"/>
     </row>
     <row r="17" spans="2:20">
       <c r="B17" s="109" t="s">
@@ -37464,26 +37466,26 @@
       </c>
     </row>
     <row r="21" spans="2:20" ht="18.75">
-      <c r="B21" s="191" t="s">
+      <c r="B21" s="198" t="s">
         <v>210</v>
       </c>
-      <c r="C21" s="191"/>
-      <c r="D21" s="191"/>
-      <c r="E21" s="191"/>
-      <c r="F21" s="191"/>
-      <c r="G21" s="191"/>
+      <c r="C21" s="198"/>
+      <c r="D21" s="198"/>
+      <c r="E21" s="198"/>
+      <c r="F21" s="198"/>
+      <c r="G21" s="198"/>
       <c r="H21" s="116"/>
       <c r="I21" s="116"/>
       <c r="J21" s="116"/>
-      <c r="K21" s="188" t="s">
+      <c r="K21" s="195" t="s">
         <v>187</v>
       </c>
-      <c r="L21" s="189"/>
-      <c r="M21" s="189"/>
-      <c r="N21" s="189"/>
-      <c r="O21" s="189"/>
-      <c r="P21" s="189"/>
-      <c r="Q21" s="190"/>
+      <c r="L21" s="196"/>
+      <c r="M21" s="196"/>
+      <c r="N21" s="196"/>
+      <c r="O21" s="196"/>
+      <c r="P21" s="196"/>
+      <c r="Q21" s="197"/>
       <c r="T21" t="s">
         <v>195</v>
       </c>
@@ -37492,17 +37494,17 @@
       <c r="B22" s="126" t="s">
         <v>148</v>
       </c>
-      <c r="C22" s="206" t="s">
+      <c r="C22" s="190" t="s">
         <v>60</v>
       </c>
-      <c r="D22" s="206"/>
+      <c r="D22" s="190"/>
       <c r="E22" s="126" t="s">
         <v>160</v>
       </c>
-      <c r="F22" s="206" t="s">
+      <c r="F22" s="190" t="s">
         <v>186</v>
       </c>
-      <c r="G22" s="206"/>
+      <c r="G22" s="190"/>
       <c r="K22" s="132" t="str">
         <f t="shared" ref="K22:K28" ca="1" si="1">INDEX(INDIRECT($L$10 &amp; "_Sensitivity"), ROW()-ROW($K$22)+1, COLUMN()-COLUMN($K$22)+1)</f>
         <v>WACC ↓ \ TGR →</v>
@@ -37518,20 +37520,20 @@
       <c r="B23" s="125" t="s">
         <v>166</v>
       </c>
-      <c r="C23" s="207">
+      <c r="C23" s="189">
         <f>'DCF-Segment'!G4</f>
         <v>1370.9122331252393</v>
       </c>
-      <c r="D23" s="207"/>
+      <c r="D23" s="189"/>
       <c r="E23" s="143">
         <f>'DCF-Segment'!K5</f>
         <v>0.99637721439528049</v>
       </c>
-      <c r="F23" s="203">
+      <c r="F23" s="191">
         <f>'DCF-Segment'!N58</f>
         <v>586859.41334524797</v>
       </c>
-      <c r="G23" s="204"/>
+      <c r="G23" s="192"/>
       <c r="K23" s="130">
         <f t="shared" ca="1" si="1"/>
         <v>1491.5405275833739</v>
@@ -37565,20 +37567,20 @@
       <c r="B24" s="125" t="s">
         <v>164</v>
       </c>
-      <c r="C24" s="207">
+      <c r="C24" s="189">
         <f>DCF_Best!G4</f>
         <v>1527.3080875026133</v>
       </c>
-      <c r="D24" s="207"/>
+      <c r="D24" s="189"/>
       <c r="E24" s="143">
         <f>DCF_Best!K5</f>
         <v>1.2241271115517884</v>
       </c>
-      <c r="F24" s="203">
+      <c r="F24" s="191">
         <f>DCF_Best!N58</f>
         <v>646798.12453537656</v>
       </c>
-      <c r="G24" s="204"/>
+      <c r="G24" s="192"/>
       <c r="K24" s="129">
         <f t="shared" ca="1" si="1"/>
         <v>0.1</v>
@@ -37612,20 +37614,20 @@
       <c r="B25" s="125" t="s">
         <v>163</v>
       </c>
-      <c r="C25" s="207">
+      <c r="C25" s="189">
         <f>DCF_Base!G4</f>
         <v>1273.1605057507679</v>
       </c>
-      <c r="D25" s="207"/>
+      <c r="D25" s="189"/>
       <c r="E25" s="143">
         <f>DCF_Base!K5</f>
         <v>0.85402724006228015</v>
       </c>
-      <c r="F25" s="203">
+      <c r="F25" s="191">
         <f>DCF_Base!N58</f>
         <v>549396.06382898183</v>
       </c>
-      <c r="G25" s="204"/>
+      <c r="G25" s="192"/>
       <c r="K25" s="129">
         <f t="shared" ca="1" si="1"/>
         <v>0.11</v>
@@ -37659,20 +37661,20 @@
       <c r="B26" s="125" t="s">
         <v>165</v>
       </c>
-      <c r="C26" s="207">
+      <c r="C26" s="189">
         <f>DCF_Worst!G4</f>
         <v>898.85516847140082</v>
       </c>
-      <c r="D26" s="207"/>
+      <c r="D26" s="189"/>
       <c r="E26" s="143">
         <f>DCF_Worst!K5</f>
         <v>0.30894884006320189</v>
       </c>
-      <c r="F26" s="203">
+      <c r="F26" s="191">
         <f>DCF_Worst!N58</f>
         <v>405943.54331666435</v>
       </c>
-      <c r="G26" s="204"/>
+      <c r="G26" s="192"/>
       <c r="K26" s="129">
         <f t="shared" ca="1" si="1"/>
         <v>0.12</v>
@@ -37706,20 +37708,20 @@
       <c r="B27" s="125" t="s">
         <v>161</v>
       </c>
-      <c r="C27" s="207">
+      <c r="C27" s="189">
         <f>DCF_CAGR!G4</f>
         <v>1273.1605057507679</v>
       </c>
-      <c r="D27" s="207"/>
+      <c r="D27" s="189"/>
       <c r="E27" s="143">
         <f>DCF_CAGR!K5</f>
         <v>0.85402724006228015</v>
       </c>
-      <c r="F27" s="203">
+      <c r="F27" s="191">
         <f>DCF_CAGR!N58</f>
         <v>549396.06382898183</v>
       </c>
-      <c r="G27" s="204"/>
+      <c r="G27" s="192"/>
       <c r="K27" s="129">
         <f t="shared" ca="1" si="1"/>
         <v>0.13</v>
@@ -37753,20 +37755,20 @@
       <c r="B28" s="125" t="s">
         <v>162</v>
       </c>
-      <c r="C28" s="207">
+      <c r="C28" s="189">
         <f>' DCF_ LINEAR REGRESSION'!G4</f>
         <v>1491.5405275833739</v>
       </c>
-      <c r="D28" s="207"/>
+      <c r="D28" s="189"/>
       <c r="E28" s="143">
         <f>' DCF_ LINEAR REGRESSION'!K5</f>
         <v>1.1720409605116844</v>
       </c>
-      <c r="F28" s="203">
+      <c r="F28" s="191">
         <f>' DCF_ LINEAR REGRESSION'!N58</f>
         <v>633090.20719632809</v>
       </c>
-      <c r="G28" s="204"/>
+      <c r="G28" s="192"/>
       <c r="K28" s="129">
         <f t="shared" ca="1" si="1"/>
         <v>0.14000000000000001</v>
@@ -37795,6 +37797,9 @@
         <f t="shared" ca="1" si="2"/>
         <v>1573.4471618630082</v>
       </c>
+    </row>
+    <row r="30" spans="2:20">
+      <c r="C30" s="188"/>
     </row>
     <row r="31" spans="2:20">
       <c r="I31" s="133"/>
@@ -37907,13 +37912,18 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="K21:Q21"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B2:T2"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L10:M10"/>
     <mergeCell ref="F28:G28"/>
     <mergeCell ref="F11:H11"/>
     <mergeCell ref="F12:H12"/>
@@ -37926,18 +37936,13 @@
     <mergeCell ref="F25:G25"/>
     <mergeCell ref="F26:G26"/>
     <mergeCell ref="F27:G27"/>
-    <mergeCell ref="K21:Q21"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B2:T2"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
   </mergeCells>
   <conditionalFormatting sqref="C16">
     <cfRule type="cellIs" dxfId="11" priority="15" operator="greaterThan">
@@ -38010,7 +38015,7 @@
   <dimension ref="B2:AF63"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -40666,6 +40671,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="6bMiKOxMbIwwlMZ5J/YqgNJIYGzWm4DdJ6F6Z2sFn/xy8lSn4WmmVQKQe4Q1Uz/+SicecZumvMLs7zp/75C4Qg==" saltValue="0579tTq6+v6zUSbzj4uIgA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -40675,7 +40681,7 @@
   <dimension ref="B2:N21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -41018,6 +41024,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="FW1ASpatEfz29cHqz9Uy56Vy64cUUOMtV+Pfg33IP0LucZ8EK/7eh9rgN9X//7bjLOKXPrUZMgwLe/U1d9nWsA==" saltValue="Ibe7uLnlL52asVgqk+/XOQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -41337,7 +41344,7 @@
   <dimension ref="B2:I23"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -41500,6 +41507,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="+/Ov7ghoU2dji3gSRMn1HhQw5EAzQXkvY81OOPnkKYRHMHVRLzumohz+gtdLsE2oKBeAeqYkhwMPdST+2Hs/jw==" saltValue="jtcOMV2cdXxky9/+vUEv2Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -41508,8 +41516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F1938AB-D2BB-42B5-801C-4C106506A3EE}">
   <dimension ref="B2:O8"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -46191,16 +46199,16 @@
       <c r="B1" s="159" t="s">
         <v>266</v>
       </c>
-      <c r="E1" s="210" t="str">
+      <c r="E1" s="211" t="str">
         <f>IF(B2&lt;&gt;B3, "A NEW VERSION OF THE WORKSHEET IS AVAILABLE", "")</f>
         <v/>
       </c>
-      <c r="F1" s="210"/>
-      <c r="G1" s="210"/>
-      <c r="H1" s="210"/>
-      <c r="I1" s="210"/>
-      <c r="J1" s="210"/>
-      <c r="K1" s="210"/>
+      <c r="F1" s="211"/>
+      <c r="G1" s="211"/>
+      <c r="H1" s="211"/>
+      <c r="I1" s="211"/>
+      <c r="J1" s="211"/>
+      <c r="K1" s="211"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="159" t="s">
@@ -46209,15 +46217,15 @@
       <c r="B2" s="170">
         <v>2.1</v>
       </c>
-      <c r="E2" s="211" t="s">
+      <c r="E2" s="212" t="s">
         <v>268</v>
       </c>
-      <c r="F2" s="211"/>
-      <c r="G2" s="211"/>
-      <c r="H2" s="211"/>
-      <c r="I2" s="211"/>
-      <c r="J2" s="211"/>
-      <c r="K2" s="211"/>
+      <c r="F2" s="212"/>
+      <c r="G2" s="212"/>
+      <c r="H2" s="212"/>
+      <c r="I2" s="212"/>
+      <c r="J2" s="212"/>
+      <c r="K2" s="212"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="159" t="s">
@@ -48140,8 +48148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AF5399B-14C7-44F3-BBB3-A418D732A3EE}">
   <dimension ref="B2:AF63"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -48201,11 +48209,11 @@
       <c r="E4" t="s">
         <v>60</v>
       </c>
-      <c r="G4" s="208">
+      <c r="G4" s="209">
         <f>N63</f>
         <v>1370.9122331252393</v>
       </c>
-      <c r="H4" s="209"/>
+      <c r="H4" s="210"/>
       <c r="M4" s="5"/>
       <c r="Q4" s="57" t="s">
         <v>121</v>
@@ -49921,6 +49929,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="Ps2bQ9XHKX7yHWX+FtZgH9+deUUdKyhpT6sdyxfj5JEs4Up40CR3841KXej98iWpZPD2StJLAcdasQhjFT8Pfw==" saltValue="KLEggWu92bb29P/BK06sBQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="G4:H4"/>
   </mergeCells>
@@ -51748,6 +51757,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="jIRpPsmyObrkNS07dr2JeVq8Ta/h/LAFMkhhLc96QkTGZY1uAXbcYaeAvdpWGOoa0guwVOilLJyD59KL1KyfVQ==" saltValue="hkFTzqljfn11w2yrnoytIg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="Q6:Q10">
     <cfRule type="colorScale" priority="2">
       <colorScale>
@@ -51808,7 +51818,7 @@
   </sheetPr>
   <dimension ref="B2:AF63"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="P22" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="Z29" sqref="Z29"/>
     </sheetView>
   </sheetViews>
@@ -51923,7 +51933,7 @@
         <v>9.1600000000000001E-2</v>
       </c>
       <c r="R6" s="53">
-        <f t="dataTable" ref="R6:W10" dt2D="1" dtr="1" r1="D10" r2="D9" ca="1"/>
+        <f t="dataTable" ref="R6:W10" dt2D="1" dtr="1" r1="D10" r2="D9"/>
         <v>1371.7053963713529</v>
       </c>
       <c r="S6" s="53">
@@ -52767,7 +52777,7 @@
         <v>9.1600000000000001E-2</v>
       </c>
       <c r="AA31" s="75">
-        <f t="dataTable" ref="AA31:AF35" dt2D="1" dtr="1" r1="D10" r2="D9"/>
+        <f t="dataTable" ref="AA31:AF35" dt2D="1" dtr="1" r1="D10" r2="D9" ca="1"/>
         <v>587163.39315932104</v>
       </c>
       <c r="AB31" s="75">
@@ -53716,6 +53726,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="/i6HtwezK3U2ioDrheGU6OuuJRtZRPXL5CP4gjBnQ3RNj+0+ozYd8O7JMZY2BJYOwMZ0fVM+nvPniAtbhH4tYw==" saltValue="67DXgPw7Fsc0yLP7pwZNiw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="Q6:W10 R5:W5 Q4">
     <cfRule type="colorScale" priority="2">
       <colorScale>
@@ -55531,6 +55542,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="6ev36eakCUM8FrPPlh/nLkWojkogKJkmfBZxhRVr0+GS2vwmHGoM9naDhREe1QzcyYAh7G431GA2HJ5Hu830aA==" saltValue="/fikDfzaWlbjwYP93mh+Nw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="Q5:W10">
     <cfRule type="colorScale" priority="1">
       <colorScale>
@@ -57345,6 +57357,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="aFZDwjAZQywoWoyT2ILt/8BMZatxyTlAPM6StFm+kO+zHVmzi5RAdq/5gr//lAZJItzscVCv6Vwxfu6R1Ft3JQ==" saltValue="/ByZzYjcLAJUt2usDv8oOA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="Q4">
     <cfRule type="colorScale" priority="3">
       <colorScale>
